--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnLoanMeeting.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnLoanMeeting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FED84C-F437-48C9-B87E-2B5A2BFCE1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE779C-BC6B-478B-99F7-0A60F4EBE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="0" windowWidth="17304" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -224,13 +221,16 @@
   <si>
     <t>MeetingDate ASC,MeetNo ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,10 +410,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -425,9 +425,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,9 +436,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,9 +498,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,9 +538,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,26 +573,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,26 +608,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,26 +786,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
@@ -856,79 +816,79 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -947,173 +907,171 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="B10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E12" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="20" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>6</v>
       </c>
     </row>
@@ -1142,7 +1100,7 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1150,7 +1108,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1161,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1127,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
